--- a/biology/Neurosciences/Racine_nerveuse/Racine_nerveuse.xlsx
+++ b/biology/Neurosciences/Racine_nerveuse/Racine_nerveuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une racine nerveuse est le segment initial d'un nerf au niveau de son émergence du névraxe (encéphale et moelle spinale). Ces racines nerveuses sont disposées de manière symétrique de chaque côté de l'encéphale en ce qui concerne les nerfs crâniens, et de chaque côté de la moelle spinale en ce qui concerne les nerfs spinaux. En principe, on réserve habituellement le nom de racine à la partie initiale des nerfs qui est composée de plusieurs troncs séparés.
 </t>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nerfs spinaux
-Les nerfs spinaux (ou rachidiens) émergent de chaque côté de la moelle spinale (ou moelle épinière) et sont au nombre de 31 paires chez l'Homme. On distingue de chaque côté 8 nerfs cervicaux (C1 à C8), 12 thoraciques (T1 à T12), 5 lombaires (L1 à L5), 5 sacrés (S1 à S5) et 1 coccygien (Co).
+          <t>Nerfs spinaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs spinaux (ou rachidiens) émergent de chaque côté de la moelle spinale (ou moelle épinière) et sont au nombre de 31 paires chez l'Homme. On distingue de chaque côté 8 nerfs cervicaux (C1 à C8), 12 thoraciques (T1 à T12), 5 lombaires (L1 à L5), 5 sacrés (S1 à S5) et 1 coccygien (Co).
 La partie initiale de chaque nerf spinal se compose de deux racines, une racine ventrale (ou antérieure), motrice, et une racine dorsale (ou postérieure), sensitive. Ces deux troncs nerveux fusionnent à chaque niveau pour former le nerf spinal correspondant.
-Nerfs crâniens
-Les nerfs crâniens émergent de l'encéphale (plus particulièrement du tronc cérébral pour la majorité d'entre eux) et sont au nombre de 12 paires chez l'Homme. Leur partie initiale est en général composée d'un unique tronc qui ne prend habituellement pas le nom de racine. Cependant, trois de ces nerfs, le trijumeau (V), le facial (VII) et l'accessoire (XI), possèdent deux racines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Racine_nerveuse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Racine_nerveuse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs crâniens émergent de l'encéphale (plus particulièrement du tronc cérébral pour la majorité d'entre eux) et sont au nombre de 12 paires chez l'Homme. Leur partie initiale est en général composée d'un unique tronc qui ne prend habituellement pas le nom de racine. Cependant, trois de ces nerfs, le trijumeau (V), le facial (VII) et l'accessoire (XI), possèdent deux racines.
 Le nerf trijumeau possède une racine sensitive, principale, et une deuxième racine motrice. Bien que ces deux troncs nerveux ne se réunissent pas (la racine motrice s'unit seulement avec une branche de la racine sensitive), leur contiguïté fait qu'ils sont considérés comme faisant partie d'un même nerf.
 Le nerf facial possède une racine principale appelée nerf facial « proprement dit », et une seconde racine appelée nerf intermédiaire. Ces deux troncs fusionnent pour former le nerf facial.
 Le nerf accessoire possède une racine spinale et une racine bulbaire. Ces deux troncs se réunissent pour former le nerf accessoire.
@@ -525,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Racine_nerveuse</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Racine_nerveuse</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Conséquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les nerfs composés de deux racines (l'ensemble des nerfs spinaux, et les nerfs crâniens V, VII et XI) sont mixtes, c'est-à-dire à la fois moteurs et sensoriels. Les nerfs qui disposent d'un seul tronc émergeant du névraxe peuvent être uniquement moteurs, uniquement sensitifs mais aussi mixtes. Ainsi :
 les nerfs trochléaire (IV), abducens (VI) et hypoglosse (XII) sont purement moteurs ;
@@ -558,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Racine_nerveuse</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Racine_nerveuse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Radiculalgie : douleur suivant le trajet du dermatome de la racine nerveuse comprimée. Un dermatome désigne une zone cutanée où tous les nerfs sensitifs proviennent d'une même racine.
 Le syndrome de la queue de cheval résulte d'une compression pluriradiculaire (de plusieurs racines) et se présente cliniquement par une anesthésie en selle et des troubles génito-sphinctériens.
@@ -591,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Racine_nerveuse</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Racine_nerveuse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'anatomiste et médecin anglais Charles Bell qui découvrit que les racines antérieures de la moelle spinale servent au mouvement alors que les racines postérieures servent à la sensibilité, découverte capitale qu'il consigna dans son Exposition of the natural system of the nerves publiée à Londres, en 1824, et traduit par Jean-Louis Genest, dès 1825.
 </t>
